--- a/9999.개인프로젝트/01.분석설계/프로젝트 계획서.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 계획서.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\02.분석설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.User -2023IVVKP\Desktop\양현석\FED-RV-YHS\9999.개인프로젝트\01.분석설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>프로젝트명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,22 @@
   </si>
   <si>
     <t>진행율(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-06 (금) 피드백
+1. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 소스 자료 전체 리네이밍
+2. 글씨체 찾기 
+3. 서브메뉴 마무리하고 2가지 스타일 만들어 놓기
+4. 피드백, To-do 시트 어떻게 관리할지 결정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -925,13 +941,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,6 +1044,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,35 +1137,29 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD64"/>
+  <dimension ref="B1:AE64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I7" sqref="I7:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1398,279 +1477,287 @@
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.375" customWidth="1"/>
-    <col min="9" max="30" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="31" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:30" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:31" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:30" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="19">
         <f ca="1">TODAY()</f>
-        <v>45631</v>
-      </c>
-      <c r="F3" s="48" t="s">
+        <v>45632</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:30" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="36" t="s">
         <v>112</v>
       </c>
       <c r="H4" s="12"/>
-      <c r="I4" s="42">
+      <c r="I4" s="55"/>
+      <c r="J4" s="30">
         <v>45630</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="45"/>
-    </row>
-    <row r="5" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="25"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="32"/>
+    </row>
+    <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="44">
-        <f>I4</f>
+      <c r="I5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="25">
+        <f>J4</f>
         <v>45630</v>
       </c>
-      <c r="J5" s="44">
-        <f>I5+1</f>
+      <c r="K5" s="25">
+        <f>J5+1</f>
         <v>45631</v>
       </c>
-      <c r="K5" s="44">
-        <f t="shared" ref="K5:AD6" si="0">J5+1</f>
+      <c r="L5" s="25">
+        <f t="shared" ref="L5:AE6" si="0">K5+1</f>
         <v>45632</v>
       </c>
-      <c r="L5" s="44">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M5" s="44">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N5" s="44">
+      <c r="O5" s="25">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O5" s="44">
+      <c r="P5" s="25">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P5" s="44">
+      <c r="Q5" s="25">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="R5" s="25">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R5" s="44">
+      <c r="S5" s="25">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S5" s="44">
+      <c r="T5" s="25">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T5" s="44">
+      <c r="U5" s="25">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U5" s="44">
+      <c r="V5" s="25">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V5" s="44">
+      <c r="W5" s="25">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W5" s="44">
+      <c r="X5" s="25">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X5" s="44">
+      <c r="Y5" s="25">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y5" s="44">
+      <c r="Z5" s="25">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z5" s="44">
+      <c r="AA5" s="25">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA5" s="44">
+      <c r="AB5" s="25">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB5" s="44">
+      <c r="AC5" s="25">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC5" s="44">
+      <c r="AD5" s="25">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD5" s="44">
+      <c r="AE5" s="25">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="33"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="26"/>
+    <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="46">
-        <f>I5</f>
+      <c r="I6" s="22"/>
+      <c r="J6" s="26">
+        <f>J5</f>
         <v>45630</v>
       </c>
-      <c r="J6" s="46">
-        <f>I6+1</f>
+      <c r="K6" s="26">
+        <f>J6+1</f>
         <v>45631</v>
       </c>
-      <c r="K6" s="46">
+      <c r="L6" s="26">
         <f t="shared" si="0"/>
         <v>45632</v>
       </c>
-      <c r="L6" s="46">
+      <c r="M6" s="26">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="M6" s="46">
+      <c r="N6" s="26">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="N6" s="46">
+      <c r="O6" s="26">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="O6" s="46">
+      <c r="P6" s="26">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="P6" s="46">
+      <c r="Q6" s="26">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="R6" s="26">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="R6" s="46">
+      <c r="S6" s="26">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="S6" s="46">
+      <c r="T6" s="26">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="T6" s="46">
+      <c r="U6" s="26">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="U6" s="46">
+      <c r="V6" s="26">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="V6" s="46">
+      <c r="W6" s="26">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="W6" s="46">
+      <c r="X6" s="26">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="X6" s="46">
+      <c r="Y6" s="26">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Z6" s="26">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="AA6" s="26">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AB6" s="26">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AC6" s="26">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AD6" s="26">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AD6" s="46">
+      <c r="AE6" s="26">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="7" spans="2:30" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:31" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1681,18 +1768,22 @@
       <c r="E7" s="15">
         <v>45635</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="29">
         <f>IF(E7="","",E7+1-D7)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="40">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1713,8 +1804,9 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="2:30" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" spans="2:31" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
@@ -1727,15 +1819,15 @@
       <c r="E8" s="15">
         <v>45635</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="29">
         <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
-      <c r="G8" s="41">
-        <v>20</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1757,8 +1849,9 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
-    </row>
-    <row r="9" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="2:31" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>48</v>
       </c>
@@ -1771,15 +1864,15 @@
       <c r="E9" s="15">
         <v>45635</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1801,8 +1894,9 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-    </row>
-    <row r="10" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="2:31" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -1815,15 +1909,15 @@
       <c r="E10" s="15">
         <v>45635</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G10" s="41">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="59"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1845,8 +1939,9 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="2:31" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1859,15 +1954,15 @@
       <c r="E11" s="15">
         <v>45635</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="41">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1889,8 +1984,9 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="2:30" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="2:31" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1903,15 +1999,15 @@
       <c r="E12" s="15">
         <v>45635</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1933,8 +2029,9 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-    </row>
-    <row r="13" spans="2:30" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="2:31" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1947,15 +2044,15 @@
       <c r="E13" s="15">
         <v>45635</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="53"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1977,8 +2074,9 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
-    </row>
-    <row r="14" spans="2:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="2:31" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1991,15 +2089,15 @@
       <c r="E14" s="15">
         <v>45635</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2021,8 +2119,9 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
-    </row>
-    <row r="15" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2035,15 +2134,15 @@
       <c r="E15" s="15">
         <v>45638</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="41">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2065,8 +2164,9 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
-    </row>
-    <row r="16" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2077,15 +2177,15 @@
       <c r="E16" s="15">
         <v>45638</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2107,8 +2207,9 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
-    </row>
-    <row r="17" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2119,15 +2220,15 @@
       <c r="E17" s="15">
         <v>45638</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="41">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2149,8 +2250,9 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>25</v>
       </c>
@@ -2163,15 +2265,15 @@
       <c r="E18" s="15">
         <v>45638</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G18" s="41">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2193,8 +2295,9 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="2:30" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -2207,15 +2310,15 @@
       <c r="E19" s="15">
         <v>45638</v>
       </c>
-      <c r="F19" s="49">
+      <c r="F19" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G19" s="41">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2237,8 +2340,9 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
@@ -2251,15 +2355,15 @@
       <c r="E20" s="15">
         <v>45638</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G20" s="41">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2281,8 +2385,9 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
@@ -2295,15 +2400,15 @@
       <c r="E21" s="15">
         <v>45638</v>
       </c>
-      <c r="F21" s="49">
+      <c r="F21" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G21" s="41">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="53"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2325,8 +2430,9 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="2:30" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>68</v>
       </c>
@@ -2339,15 +2445,15 @@
       <c r="E22" s="15">
         <v>45638</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G22" s="41">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2369,8 +2475,9 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2383,15 +2490,15 @@
       <c r="E23" s="15">
         <v>45638</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G23" s="41">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="G23" s="24">
+        <v>0</v>
+      </c>
+      <c r="H23" s="53"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2413,8 +2520,9 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2427,15 +2535,15 @@
       <c r="E24" s="15">
         <v>45638</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G24" s="41">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="53"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2457,8 +2565,9 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
@@ -2471,15 +2580,15 @@
       <c r="E25" s="15">
         <v>45638</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G25" s="41">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2501,8 +2610,9 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
@@ -2515,15 +2625,15 @@
       <c r="E26" s="15">
         <v>45638</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="41">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2545,8 +2655,9 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -2559,15 +2670,15 @@
       <c r="E27" s="15">
         <v>45638</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G27" s="41">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+      <c r="H27" s="53"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2589,8 +2700,9 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>65</v>
       </c>
@@ -2603,15 +2715,15 @@
       <c r="E28" s="15">
         <v>45638</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G28" s="41">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2633,8 +2745,9 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="2:30" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>29</v>
       </c>
@@ -2647,15 +2760,15 @@
       <c r="E29" s="15">
         <v>45638</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G29" s="41">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="24">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2677,8 +2790,9 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
@@ -2691,15 +2805,15 @@
       <c r="E30" s="15">
         <v>45638</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G30" s="41">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="53"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2721,8 +2835,9 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -2735,15 +2850,15 @@
       <c r="E31" s="15">
         <v>45638</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="G31" s="24">
+        <v>0</v>
+      </c>
+      <c r="H31" s="53"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2765,8 +2880,9 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>14</v>
       </c>
@@ -2777,15 +2893,15 @@
       <c r="E32" s="15">
         <v>45638</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G32" s="41">
-        <v>0</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="G32" s="24">
+        <v>0</v>
+      </c>
+      <c r="H32" s="53"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2807,8 +2923,9 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2821,15 +2938,15 @@
       <c r="E33" s="15">
         <v>45638</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G33" s="41">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+      <c r="H33" s="53"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2851,8 +2968,9 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>31</v>
       </c>
@@ -2865,15 +2983,15 @@
       <c r="E34" s="15">
         <v>45638</v>
       </c>
-      <c r="F34" s="49">
+      <c r="F34" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G34" s="41">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2895,8 +3013,9 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
@@ -2909,15 +3028,15 @@
       <c r="E35" s="15">
         <v>45642</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G35" s="41">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="53"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2939,8 +3058,9 @@
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
-    </row>
-    <row r="36" spans="2:30" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>34</v>
       </c>
@@ -2953,15 +3073,15 @@
       <c r="E36" s="15">
         <v>45642</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G36" s="41">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="24">
+        <v>0</v>
+      </c>
+      <c r="H36" s="53"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2983,8 +3103,9 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
-    </row>
-    <row r="37" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>45</v>
       </c>
@@ -2997,15 +3118,15 @@
       <c r="E37" s="15">
         <v>45642</v>
       </c>
-      <c r="F37" s="49">
+      <c r="F37" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G37" s="41">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="G37" s="24">
+        <v>0</v>
+      </c>
+      <c r="H37" s="53"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3027,8 +3148,9 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
@@ -3039,15 +3161,15 @@
       <c r="E38" s="15">
         <v>45642</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F38" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G38" s="41">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="24">
+        <v>0</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3069,8 +3191,9 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -3083,15 +3206,15 @@
       <c r="E39" s="15">
         <v>45642</v>
       </c>
-      <c r="F39" s="49">
+      <c r="F39" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G39" s="41">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="24">
+        <v>0</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3113,8 +3236,9 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
-    </row>
-    <row r="40" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>36</v>
       </c>
@@ -3127,15 +3251,15 @@
       <c r="E40" s="15">
         <v>45642</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G40" s="41">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="G40" s="24">
+        <v>0</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3157,8 +3281,9 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>37</v>
       </c>
@@ -3171,15 +3296,15 @@
       <c r="E41" s="15">
         <v>45642</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G41" s="41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="24">
+        <v>0</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3201,8 +3326,9 @@
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
-    </row>
-    <row r="42" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
@@ -3215,15 +3341,15 @@
       <c r="E42" s="15">
         <v>45644</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G42" s="41">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="24">
+        <v>0</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3245,8 +3371,9 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>38</v>
       </c>
@@ -3257,15 +3384,15 @@
       <c r="E43" s="15">
         <v>45644</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G43" s="41">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3287,8 +3414,9 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
-    </row>
-    <row r="44" spans="2:30" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>39</v>
       </c>
@@ -3301,15 +3429,15 @@
       <c r="E44" s="15">
         <v>45644</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G44" s="41">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="G44" s="24">
+        <v>0</v>
+      </c>
+      <c r="H44" s="53"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3331,8 +3459,9 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
-    </row>
-    <row r="45" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>40</v>
       </c>
@@ -3345,15 +3474,15 @@
       <c r="E45" s="15">
         <v>45644</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G45" s="41">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="53"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3375,8 +3504,9 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
-    </row>
-    <row r="46" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
@@ -3387,15 +3517,15 @@
       <c r="E46" s="15">
         <v>45644</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G46" s="41">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="G46" s="24">
+        <v>0</v>
+      </c>
+      <c r="H46" s="53"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3417,8 +3547,9 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
-    </row>
-    <row r="47" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
@@ -3431,15 +3562,15 @@
       <c r="E47" s="15">
         <v>45644</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G47" s="41">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="53"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -3461,8 +3592,9 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
-    </row>
-    <row r="48" spans="2:30" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>42</v>
       </c>
@@ -3475,15 +3607,15 @@
       <c r="E48" s="15">
         <v>45644</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G48" s="41">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="G48" s="24">
+        <v>0</v>
+      </c>
+      <c r="H48" s="53"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3505,8 +3637,9 @@
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
-    </row>
-    <row r="49" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>44</v>
       </c>
@@ -3519,15 +3652,15 @@
       <c r="E49" s="15">
         <v>45644</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G49" s="41">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="G49" s="24">
+        <v>0</v>
+      </c>
+      <c r="H49" s="53"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3549,8 +3682,9 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
-    </row>
-    <row r="50" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>53</v>
       </c>
@@ -3561,15 +3695,15 @@
       <c r="E50" s="15">
         <v>45644</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G50" s="41">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="G50" s="24">
+        <v>0</v>
+      </c>
+      <c r="H50" s="53"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3591,8 +3725,9 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
-    </row>
-    <row r="51" spans="2:30" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="2:31" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>85</v>
       </c>
@@ -3605,15 +3740,15 @@
       <c r="E51" s="15">
         <v>45644</v>
       </c>
-      <c r="F51" s="49">
+      <c r="F51" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G51" s="41">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="G51" s="24">
+        <v>0</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3635,8 +3770,9 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
-    </row>
-    <row r="52" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>54</v>
       </c>
@@ -3649,15 +3785,15 @@
       <c r="E52" s="15">
         <v>45644</v>
       </c>
-      <c r="F52" s="49">
+      <c r="F52" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G52" s="41">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G52" s="24">
+        <v>0</v>
+      </c>
+      <c r="H52" s="53"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3679,8 +3815,9 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
-    </row>
-    <row r="53" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>55</v>
       </c>
@@ -3693,15 +3830,15 @@
       <c r="E53" s="15">
         <v>45644</v>
       </c>
-      <c r="F53" s="49">
+      <c r="F53" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G53" s="41">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="G53" s="24">
+        <v>0</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3723,8 +3860,9 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
-    </row>
-    <row r="54" spans="2:30" ht="66" x14ac:dyDescent="0.3">
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="2:31" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
@@ -3737,15 +3875,15 @@
       <c r="E54" s="15">
         <v>45646</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G54" s="41">
-        <v>0</v>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="G54" s="24">
+        <v>0</v>
+      </c>
+      <c r="H54" s="53"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3767,8 +3905,9 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
-    </row>
-    <row r="55" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>91</v>
       </c>
@@ -3778,15 +3917,15 @@
       <c r="E55" s="15">
         <v>45646</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G55" s="41">
-        <v>0</v>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="G55" s="24">
+        <v>0</v>
+      </c>
+      <c r="H55" s="53"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3808,8 +3947,9 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
-    </row>
-    <row r="56" spans="2:30" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="2:31" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>92</v>
       </c>
@@ -3822,15 +3962,15 @@
       <c r="E56" s="15">
         <v>45646</v>
       </c>
-      <c r="F56" s="49">
+      <c r="F56" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G56" s="41">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="G56" s="24">
+        <v>0</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3852,8 +3992,9 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
-    </row>
-    <row r="57" spans="2:30" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>93</v>
       </c>
@@ -3866,15 +4007,15 @@
       <c r="E57" s="15">
         <v>45646</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G57" s="41">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+      <c r="H57" s="53"/>
+      <c r="I57" s="56"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3896,8 +4037,9 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
         <v>46</v>
       </c>
@@ -3910,15 +4052,15 @@
       <c r="E58" s="15">
         <v>45646</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F58" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G58" s="41">
-        <v>0</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="53"/>
+      <c r="I58" s="56"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3940,8 +4082,9 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="2:30" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>47</v>
       </c>
@@ -3954,15 +4097,15 @@
       <c r="E59" s="15">
         <v>45646</v>
       </c>
-      <c r="F59" s="49">
+      <c r="F59" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G59" s="41">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="53"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3984,8 +4127,9 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
-    </row>
-    <row r="60" spans="2:30" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>96</v>
       </c>
@@ -3998,15 +4142,15 @@
       <c r="E60" s="15">
         <v>45646</v>
       </c>
-      <c r="F60" s="49">
+      <c r="F60" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G60" s="41">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="G60" s="24">
+        <v>0</v>
+      </c>
+      <c r="H60" s="53"/>
+      <c r="I60" s="56"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4028,8 +4172,9 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="2:30" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
         <v>109</v>
       </c>
@@ -4040,15 +4185,15 @@
       <c r="E61" s="15">
         <v>45650</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G61" s="41">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="G61" s="24">
+        <v>0</v>
+      </c>
+      <c r="H61" s="52"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4070,8 +4215,9 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="2:31" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>99</v>
       </c>
@@ -4082,11 +4228,11 @@
       <c r="E62" s="15">
         <v>45650</v>
       </c>
-      <c r="F62" s="49">
+      <c r="F62" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G62" s="41">
+      <c r="G62" s="24">
         <v>0</v>
       </c>
       <c r="H62" s="1"/>
@@ -4112,8 +4258,9 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-    </row>
-    <row r="63" spans="2:30" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="2:31" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="20" t="s">
         <v>84</v>
       </c>
@@ -4124,11 +4271,11 @@
       <c r="E63" s="15">
         <v>45650</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G63" s="41">
+      <c r="G63" s="24">
         <v>0</v>
       </c>
       <c r="H63" s="1"/>
@@ -4154,8 +4301,9 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
-    </row>
-    <row r="64" spans="2:30" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="2:31" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>98</v>
       </c>
@@ -4166,11 +4314,11 @@
       <c r="E64" s="15">
         <v>45650</v>
       </c>
-      <c r="F64" s="49">
+      <c r="F64" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="24">
         <v>0</v>
       </c>
       <c r="H64" s="1"/>
@@ -4196,10 +4344,13 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I4:AD4"/>
+  <mergeCells count="10">
+    <mergeCell ref="H7:H61"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="J4:AE4"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:D2"/>
@@ -4223,14 +4374,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AD64">
+  <conditionalFormatting sqref="J7:AE64">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(I$5&gt;=$D7,I$5&lt;=$E7)</formula>
+      <formula>AND(J$5&gt;=$D7,J$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AD64">
+  <conditionalFormatting sqref="J5:AE64">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>I$5=$E$3</formula>
+      <formula>J$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/9999.개인프로젝트/01.분석설계/프로젝트 계획서.xlsx
+++ b/9999.개인프로젝트/01.분석설계/프로젝트 계획서.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 전체일정" sheetId="1" r:id="rId1"/>
+    <sheet name="프로젝트 전체일정 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
-  <si>
-    <t>프로젝트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="135">
   <si>
     <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,39 +497,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>테스트 및 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행기간(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행율(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드백 &amp; To-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 및 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행기간(일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행율(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-06 (금) 피드백
-1. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 소스 자료 전체 리네이밍
-2. 글씨체 찾기 
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Javascript 기능을 배우지 않았으므로 HTML, CSS로 형태를 갖추어놓고 추후 진도에 따라 기능 추가 하기 바람.
+2. 원본 페이지에서는 유료 폰트를 사용하고 있으므로 스타일이 비슷한 무료 폰트 사용
+3. 인트로 페이지의 경우 따로두고 제작
+4. 화면 밝기 조절은 filter: brightness 
+5. 원본에 트랜지션을 주면 양방향이 된다.
+6. 개념 재정립
+ margin: 0 auto / height 는 position: absolute에서 먹히지 않는다. 내용만큼 늘어나기 때문
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-06 (금)</t>
+  </si>
+  <si>
+    <t>2024-12-06 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-10 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-06 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-12-09 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무처리내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">피드백 진행 및 일부분 즉시 반영
+1. 서브, 탑 메뉴 HTML 구조 정비
+2. 서브메뉴 CSS
+3. 탑 메뉴 버튼 CSS
+4. 메인 페이지 배경화면 CSS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 서브메뉴 밑줄 애니메이션 피드백 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. 소스 자료 전체 리네이밍 (피그마에 맞춰져 있으므로 메인페이지 제작시 정리하면서 업데이트할 예정)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. 글씨체 찾기 (12.08 완료)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 3. 서브메뉴 마무리하고 2가지 스타일 만들어 놓기
-4. 피드백, To-do 시트 어떻게 관리할지 결정</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. 피드백, To-do 시트 어떻게 관리할지 결정(12.09 폼 작성 완료)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. 탑 메뉴 디폴트 스타일 외 2가지 스타일 추가
+6. 장바구니 버튼 클릭시 화면 제작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. position fixed 할 요소들은 한 곳에 묶어서 코딩 진행하는 것이 관리하기 좋음. Z-index 를 줘서 위치를 높일 수도 있음. Fixed는 보이는 화면을 기준으로 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익일
+To-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 상단 탑 메뉴 스타일 2개 생성
+2. 서브메뉴 고정 코딩구역 생성하여 코딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +686,7 @@
     <numFmt numFmtId="178" formatCode="d"/>
     <numFmt numFmtId="179" formatCode="aaa"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +811,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -686,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -943,7 +1108,22 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -956,7 +1136,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
@@ -966,12 +1146,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
       <top style="thick">
         <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -980,7 +1203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,6 +1240,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,146 +1357,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1461,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AE64"/>
+  <dimension ref="B1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I14"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1472,318 +1703,298 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="59.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.375" customWidth="1"/>
-    <col min="9" max="9" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="31" width="3.625" customWidth="1"/>
+    <col min="8" max="29" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:31" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+    <row r="1" spans="2:29" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:29" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:29" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45635</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="2:31" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="18" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19">
-        <f ca="1">TODAY()</f>
+    </row>
+    <row r="4" spans="2:29" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="42">
+        <v>45630</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="44"/>
+    </row>
+    <row r="5" spans="2:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="20">
+        <f>H4</f>
+        <v>45630</v>
+      </c>
+      <c r="I5" s="20">
+        <f>H5+1</f>
+        <v>45631</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" ref="J5:AC6" si="0">I5+1</f>
         <v>45632</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="30">
-        <v>45630</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="32"/>
-    </row>
-    <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="44"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="25">
-        <f>J4</f>
-        <v>45630</v>
-      </c>
-      <c r="K5" s="25">
-        <f>J5+1</f>
-        <v>45631</v>
-      </c>
-      <c r="L5" s="25">
-        <f t="shared" ref="L5:AE6" si="0">K5+1</f>
-        <v>45632</v>
-      </c>
-      <c r="M5" s="25">
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="N5" s="25">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="O5" s="25">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="P5" s="25">
+      <c r="N5" s="20">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="O5" s="20">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="R5" s="25">
+      <c r="P5" s="20">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="S5" s="25">
+      <c r="Q5" s="20">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="T5" s="25">
+      <c r="R5" s="20">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="U5" s="25">
+      <c r="S5" s="20">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="V5" s="25">
+      <c r="T5" s="20">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="W5" s="25">
+      <c r="U5" s="20">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="X5" s="25">
+      <c r="V5" s="20">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="W5" s="20">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="X5" s="20">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="AA5" s="25">
+      <c r="Y5" s="20">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AB5" s="25">
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AC5" s="25">
+      <c r="AA5" s="20">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AB5" s="20">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AC5" s="20">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="26">
-        <f>J5</f>
+    <row r="6" spans="2:29" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="21">
+        <f>H5</f>
         <v>45630</v>
       </c>
-      <c r="K6" s="26">
-        <f>J6+1</f>
+      <c r="I6" s="21">
+        <f>H6+1</f>
         <v>45631</v>
       </c>
-      <c r="L6" s="26">
+      <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>45632</v>
       </c>
-      <c r="M6" s="26">
+      <c r="K6" s="21">
         <f t="shared" si="0"/>
         <v>45633</v>
       </c>
-      <c r="N6" s="26">
+      <c r="L6" s="21">
         <f t="shared" si="0"/>
         <v>45634</v>
       </c>
-      <c r="O6" s="26">
+      <c r="M6" s="21">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="P6" s="26">
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>45636</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="O6" s="21">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="R6" s="26">
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
         <v>45638</v>
       </c>
-      <c r="S6" s="26">
+      <c r="Q6" s="21">
         <f t="shared" si="0"/>
         <v>45639</v>
       </c>
-      <c r="T6" s="26">
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
         <v>45640</v>
       </c>
-      <c r="U6" s="26">
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>45641</v>
       </c>
-      <c r="V6" s="26">
+      <c r="T6" s="21">
         <f t="shared" si="0"/>
         <v>45642</v>
       </c>
-      <c r="W6" s="26">
+      <c r="U6" s="21">
         <f t="shared" si="0"/>
         <v>45643</v>
       </c>
-      <c r="X6" s="26">
+      <c r="V6" s="21">
         <f t="shared" si="0"/>
         <v>45644</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="W6" s="21">
         <f t="shared" si="0"/>
         <v>45645</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="X6" s="21">
         <f t="shared" si="0"/>
         <v>45646</v>
       </c>
-      <c r="AA6" s="26">
+      <c r="Y6" s="21">
         <f t="shared" si="0"/>
         <v>45647</v>
       </c>
-      <c r="AB6" s="26">
+      <c r="Z6" s="21">
         <f t="shared" si="0"/>
         <v>45648</v>
       </c>
-      <c r="AC6" s="26">
+      <c r="AA6" s="21">
         <f t="shared" si="0"/>
         <v>45649</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AB6" s="21">
         <f t="shared" si="0"/>
         <v>45650</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AC6" s="21">
         <f t="shared" si="0"/>
         <v>45651</v>
       </c>
     </row>
-    <row r="7" spans="2:31" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>45630</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>45635</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="24">
         <f>IF(E7="","",E7+1-D7)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="H7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1803,31 +2014,29 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-    </row>
-    <row r="8" spans="2:31" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:29" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12">
         <v>45630</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>45635</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="24">
         <f t="shared" ref="F8:F64" si="1">IF(E8="","",E8+1-D8)</f>
         <v>6</v>
       </c>
-      <c r="G8" s="24">
-        <v>0</v>
-      </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="59"/>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1848,31 +2057,29 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="2:31" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:29" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="15">
+        <v>100</v>
+      </c>
+      <c r="D9" s="12">
         <v>45630</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>45635</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="24">
-        <v>0</v>
-      </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="59"/>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1893,31 +2100,29 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="2:31" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:29" ht="66" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="15">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12">
         <v>45630</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>45635</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G10" s="24">
-        <v>0</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="59"/>
+      <c r="G10" s="19">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1938,31 +2143,29 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-    </row>
-    <row r="11" spans="2:31" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:29" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="15">
+        <v>51</v>
+      </c>
+      <c r="D11" s="12">
         <v>45630</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>45635</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="24">
-        <v>0</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="59"/>
+      <c r="G11" s="19">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1983,31 +2186,29 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="2:31" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:29" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="15">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12">
         <v>45630</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>45635</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="59"/>
+      <c r="G12" s="19">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2028,31 +2229,29 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="13" spans="2:31" ht="148.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:29" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="15">
+        <v>58</v>
+      </c>
+      <c r="D13" s="12">
         <v>45630</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>45635</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G13" s="24">
-        <v>0</v>
-      </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="59"/>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2073,31 +2272,29 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-    </row>
-    <row r="14" spans="2:31" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:29" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="15">
+        <v>57</v>
+      </c>
+      <c r="D14" s="12">
         <v>45630</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>45635</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="59"/>
+      <c r="G14" s="19">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -2118,31 +2315,29 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-    </row>
-    <row r="15" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="15">
+        <v>56</v>
+      </c>
+      <c r="D15" s="12">
         <v>45636</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>45638</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="56"/>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2163,29 +2358,27 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-    </row>
-    <row r="16" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>45636</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>45638</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="56"/>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2206,29 +2399,27 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>45636</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>45638</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="24">
-        <v>0</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2249,31 +2440,29 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="18" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="15">
+        <v>59</v>
+      </c>
+      <c r="D18" s="12">
         <v>45636</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>45638</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G18" s="24">
-        <v>0</v>
-      </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="56"/>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2294,31 +2483,29 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-    </row>
-    <row r="19" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="15">
+        <v>60</v>
+      </c>
+      <c r="D19" s="12">
         <v>45636</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>45638</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G19" s="24">
-        <v>0</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2339,31 +2526,29 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="15">
+        <v>101</v>
+      </c>
+      <c r="D20" s="12">
         <v>45636</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>45638</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="56"/>
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2384,31 +2569,29 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="15">
+        <v>102</v>
+      </c>
+      <c r="D21" s="12">
         <v>45636</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>45638</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="56"/>
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2429,31 +2612,29 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="22" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>45636</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>45638</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G22" s="24">
-        <v>0</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="56"/>
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2474,31 +2655,29 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-    </row>
-    <row r="23" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12">
         <v>45636</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>45638</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G23" s="24">
-        <v>0</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -2519,31 +2698,29 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-    </row>
-    <row r="24" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="15">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12">
         <v>45636</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>45638</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G24" s="24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="56"/>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2564,31 +2741,29 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="15">
+        <v>103</v>
+      </c>
+      <c r="D25" s="12">
         <v>45636</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>45638</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G25" s="24">
-        <v>0</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="56"/>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2609,31 +2784,29 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-    </row>
-    <row r="26" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="15">
+        <v>66</v>
+      </c>
+      <c r="D26" s="12">
         <v>45636</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="12">
         <v>45638</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="24">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2654,31 +2827,29 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-    </row>
-    <row r="27" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="15">
+        <v>65</v>
+      </c>
+      <c r="D27" s="12">
         <v>45636</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>45638</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -2699,31 +2870,29 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-    </row>
-    <row r="28" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="15">
+        <v>104</v>
+      </c>
+      <c r="D28" s="12">
         <v>45636</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>45638</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2744,31 +2913,29 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-    </row>
-    <row r="29" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="15">
+        <v>105</v>
+      </c>
+      <c r="D29" s="12">
         <v>45636</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>45638</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G29" s="24">
-        <v>0</v>
-      </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="56"/>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2789,31 +2956,29 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-    </row>
-    <row r="30" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="15">
+        <v>69</v>
+      </c>
+      <c r="D30" s="12">
         <v>45636</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>45638</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2834,31 +2999,29 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-    </row>
-    <row r="31" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="15">
+        <v>70</v>
+      </c>
+      <c r="D31" s="12">
         <v>45636</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>45638</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G31" s="24">
-        <v>0</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2879,29 +3042,27 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="1"/>
-    </row>
-    <row r="32" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>45636</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>45638</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G32" s="24">
-        <v>0</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="56"/>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2922,31 +3083,29 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-    </row>
-    <row r="33" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="15">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12">
         <v>45636</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>45638</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G33" s="24">
-        <v>0</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="56"/>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2967,31 +3126,29 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-    </row>
-    <row r="34" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="15">
+        <v>72</v>
+      </c>
+      <c r="D34" s="12">
         <v>45636</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>45638</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="24">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G34" s="24">
-        <v>0</v>
-      </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="56"/>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3012,31 +3169,29 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-    </row>
-    <row r="35" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="15">
+        <v>73</v>
+      </c>
+      <c r="D35" s="12">
         <v>45639</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>45642</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G35" s="24">
-        <v>0</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="56"/>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3057,31 +3212,29 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-    </row>
-    <row r="36" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="15">
+        <v>74</v>
+      </c>
+      <c r="D36" s="12">
         <v>45639</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="12">
         <v>45642</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G36" s="24">
-        <v>0</v>
-      </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="56"/>
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3102,31 +3255,29 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-    </row>
-    <row r="37" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="15">
+        <v>75</v>
+      </c>
+      <c r="D37" s="12">
         <v>45639</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="12">
         <v>45642</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G37" s="24">
-        <v>0</v>
-      </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="56"/>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3147,29 +3298,27 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-    </row>
-    <row r="38" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="15">
+      <c r="D38" s="12">
         <v>45639</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>45642</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G38" s="24">
-        <v>0</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="56"/>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3190,31 +3339,29 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-    </row>
-    <row r="39" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="15">
+        <v>63</v>
+      </c>
+      <c r="D39" s="12">
         <v>45639</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>45642</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G39" s="24">
-        <v>0</v>
-      </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="56"/>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3235,31 +3382,29 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="1"/>
-    </row>
-    <row r="40" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="15">
+        <v>76</v>
+      </c>
+      <c r="D40" s="12">
         <v>45639</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="12">
         <v>45642</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="56"/>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -3280,31 +3425,29 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="1"/>
-    </row>
-    <row r="41" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="15">
+        <v>77</v>
+      </c>
+      <c r="D41" s="12">
         <v>45639</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="12">
         <v>45642</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="24">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G41" s="24">
-        <v>0</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="56"/>
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -3325,31 +3468,29 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-    </row>
-    <row r="42" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="15">
+        <v>99</v>
+      </c>
+      <c r="D42" s="12">
         <v>45643</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="12">
         <v>45644</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G42" s="24">
-        <v>0</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="56"/>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -3370,29 +3511,27 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-    </row>
-    <row r="43" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="15">
+      <c r="D43" s="12">
         <v>45643</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>45644</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G43" s="24">
-        <v>0</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="56"/>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -3413,31 +3552,29 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="1"/>
-    </row>
-    <row r="44" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="15">
+        <v>79</v>
+      </c>
+      <c r="D44" s="12">
         <v>45643</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>45644</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G44" s="24">
-        <v>0</v>
-      </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="56"/>
+      <c r="G44" s="19">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3458,31 +3595,29 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1"/>
-    </row>
-    <row r="45" spans="2:31" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:29" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="15">
+        <v>78</v>
+      </c>
+      <c r="D45" s="12">
         <v>45643</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>45644</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G45" s="24">
-        <v>0</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="56"/>
+      <c r="G45" s="19">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3503,29 +3638,27 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-    </row>
-    <row r="46" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="15">
+      <c r="D46" s="12">
         <v>45643</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>45644</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G46" s="24">
-        <v>0</v>
-      </c>
-      <c r="H46" s="53"/>
-      <c r="I46" s="56"/>
+      <c r="G46" s="19">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3546,31 +3679,29 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="1"/>
-    </row>
-    <row r="47" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="15">
+        <v>81</v>
+      </c>
+      <c r="D47" s="12">
         <v>45643</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="12">
         <v>45644</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G47" s="24">
-        <v>0</v>
-      </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="56"/>
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -3591,31 +3722,29 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-    </row>
-    <row r="48" spans="2:31" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:29" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="15">
+        <v>80</v>
+      </c>
+      <c r="D48" s="12">
         <v>45643</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="12">
         <v>45644</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G48" s="24">
-        <v>0</v>
-      </c>
-      <c r="H48" s="53"/>
-      <c r="I48" s="56"/>
+      <c r="G48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3636,31 +3765,29 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-    </row>
-    <row r="49" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="15">
+        <v>82</v>
+      </c>
+      <c r="D49" s="12">
         <v>45643</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>45644</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G49" s="24">
-        <v>0</v>
-      </c>
-      <c r="H49" s="53"/>
-      <c r="I49" s="56"/>
+      <c r="G49" s="19">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3681,29 +3808,27 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-    </row>
-    <row r="50" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="15">
+      <c r="D50" s="12">
         <v>45643</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <v>45644</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G50" s="24">
-        <v>0</v>
-      </c>
-      <c r="H50" s="53"/>
-      <c r="I50" s="56"/>
+      <c r="G50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3724,31 +3849,29 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="1"/>
-    </row>
-    <row r="51" spans="2:31" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:29" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="15">
+        <v>87</v>
+      </c>
+      <c r="D51" s="12">
         <v>45643</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>45644</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G51" s="24">
-        <v>0</v>
-      </c>
-      <c r="H51" s="53"/>
-      <c r="I51" s="56"/>
+      <c r="G51" s="19">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3769,31 +3892,29 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="1"/>
-    </row>
-    <row r="52" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="15">
+        <v>85</v>
+      </c>
+      <c r="D52" s="12">
         <v>45643</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="12">
         <v>45644</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G52" s="24">
-        <v>0</v>
-      </c>
-      <c r="H52" s="53"/>
-      <c r="I52" s="56"/>
+      <c r="G52" s="19">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3814,31 +3935,29 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-    </row>
-    <row r="53" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="15">
+        <v>86</v>
+      </c>
+      <c r="D53" s="12">
         <v>45643</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>45644</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G53" s="24">
-        <v>0</v>
-      </c>
-      <c r="H53" s="53"/>
-      <c r="I53" s="56"/>
+      <c r="G53" s="19">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3859,31 +3978,29 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-    </row>
-    <row r="54" spans="2:31" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:29" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="15">
+        <v>88</v>
+      </c>
+      <c r="D54" s="12">
         <v>45645</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <v>45646</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="56"/>
+      <c r="G54" s="19">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3904,28 +4021,26 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-    </row>
-    <row r="55" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="15">
+        <v>90</v>
+      </c>
+      <c r="D55" s="12">
         <v>45645</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>45646</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G55" s="24">
-        <v>0</v>
-      </c>
-      <c r="H55" s="53"/>
-      <c r="I55" s="56"/>
+      <c r="G55" s="19">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3946,31 +4061,29 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-    </row>
-    <row r="56" spans="2:31" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:29" ht="82.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="15">
+        <v>89</v>
+      </c>
+      <c r="D56" s="12">
         <v>45645</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <v>45646</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G56" s="24">
-        <v>0</v>
-      </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="56"/>
+      <c r="G56" s="19">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3991,31 +4104,29 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-    </row>
-    <row r="57" spans="2:31" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:29" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <v>45645</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>45646</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G57" s="24">
-        <v>0</v>
-      </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="56"/>
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4036,31 +4147,29 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-    </row>
-    <row r="58" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="15">
+        <v>106</v>
+      </c>
+      <c r="D58" s="12">
         <v>45645</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <v>45646</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G58" s="24">
-        <v>0</v>
-      </c>
-      <c r="H58" s="53"/>
-      <c r="I58" s="56"/>
+      <c r="G58" s="19">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4081,31 +4190,29 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-    </row>
-    <row r="59" spans="2:31" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:29" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="15">
+        <v>94</v>
+      </c>
+      <c r="D59" s="12">
         <v>45645</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="12">
         <v>45646</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G59" s="24">
-        <v>0</v>
-      </c>
-      <c r="H59" s="53"/>
-      <c r="I59" s="56"/>
+      <c r="G59" s="19">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4126,31 +4233,29 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-    </row>
-    <row r="60" spans="2:31" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:29" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="15">
+      <c r="D60" s="12">
         <v>45645</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="12">
         <v>45646</v>
       </c>
-      <c r="F60" s="29">
+      <c r="F60" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G60" s="24">
-        <v>0</v>
-      </c>
-      <c r="H60" s="53"/>
-      <c r="I60" s="56"/>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4171,29 +4276,27 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-    </row>
-    <row r="61" spans="2:31" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:29" ht="37.5" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="15">
+      <c r="D61" s="12">
         <v>45646</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <v>45650</v>
       </c>
-      <c r="F61" s="29">
+      <c r="F61" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G61" s="24">
-        <v>0</v>
-      </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="57"/>
+      <c r="G61" s="19">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4214,25 +4317,23 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-    </row>
-    <row r="62" spans="2:31" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:29" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" s="11"/>
-      <c r="D62" s="15">
+      <c r="D62" s="12">
         <v>45646</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="12">
         <v>45650</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="19">
         <v>0</v>
       </c>
       <c r="H62" s="1"/>
@@ -4257,25 +4358,23 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-    </row>
-    <row r="63" spans="2:31" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="20" t="s">
-        <v>84</v>
+    </row>
+    <row r="63" spans="2:29" ht="52.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="C63" s="11"/>
-      <c r="D63" s="15">
+      <c r="D63" s="12">
         <v>45646</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <v>45650</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="19">
         <v>0</v>
       </c>
       <c r="H63" s="1"/>
@@ -4300,25 +4399,23 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="1"/>
-    </row>
-    <row r="64" spans="2:31" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:29" ht="26.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="15">
+      <c r="D64" s="12">
         <v>45646</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="12">
         <v>45650</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="24">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="19">
         <v>0</v>
       </c>
       <c r="H64" s="1"/>
@@ -4343,14 +4440,10 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H7:H61"/>
-    <mergeCell ref="I7:I14"/>
-    <mergeCell ref="J4:AE4"/>
+  <mergeCells count="8">
+    <mergeCell ref="H4:AC4"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="B2:D2"/>
@@ -4374,14 +4467,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:AE64">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(J$5&gt;=$D7,J$5&lt;=$E7)</formula>
+  <conditionalFormatting sqref="H7:AC64">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(H$5&gt;=$D7,H$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:AE64">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>J$5=$E$3</formula>
+  <conditionalFormatting sqref="H5:AC64">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>H$5=$E$3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4406,4 +4499,501 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="63.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:15" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16">
+        <f ca="1">TODAY()</f>
+        <v>45635</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="51"/>
+      <c r="C4" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+    </row>
+    <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+    </row>
+    <row r="6" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+    </row>
+    <row r="7" spans="1:15" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+    </row>
+    <row r="8" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
+      <c r="C10"/>
+      <c r="F10" s="4"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="53"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="51"/>
+      <c r="C17" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" s="13" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="26"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" s="13" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="51"/>
+      <c r="C23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="52"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="53"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="2:12" s="13" customFormat="1" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" s="13" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D17:D19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H4:O8">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND(#REF!&gt;=$D4,#REF!&lt;=$E4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:O8">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>#REF!=$E$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G8">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F35BE3AD-C14D-4965-9B2A-81A3F601855C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F35BE3AD-C14D-4965-9B2A-81A3F601855C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4:G8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>